--- a/correlation/correlation 5 and 6/correlation 5 and 6 - commons-net .xlsx
+++ b/correlation/correlation 5 and 6/correlation 5 and 6 - commons-net .xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Avinash\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shalin_patel/Downloads/soen6611-measurement-metrics/correlation/correlation 5 and 6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F2AD09-F896-4D92-AF95-15C7DE12ECA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6344751E-B306-3846-A0D4-F074CD067E4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -299,9 +301,28 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Metrics 6 vs Metric 5</a:t>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Apache Common Net</a:t>
             </a:r>
+            <a:endParaRPr lang="en-IN">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Maintenance Effort vs Defect Density</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -345,38 +366,55 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$13</c:f>
+              <c:f>Sheet1!$C$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Metrics 5</c:v>
+                  <c:v>Metrics 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>78.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89.52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>113.63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>158.17000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>253.91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$C$14:$C$19</c:f>
               <c:numCache>
@@ -386,46 +424,19 @@
                   <c:v>2.1136861176115347</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.61780997017469108</c:v>
+                  <c:v>0.22556633261366932</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.76504442473875478</c:v>
+                  <c:v>0.42949176807444522</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.17785538740137111</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.22556633261366932</c:v>
+                  <c:v>0.76504442473875478</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.42949176807444522</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$14:$D$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>78.12</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>253.91</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>158.17000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>113.63</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80.31</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>89.52</c:v>
+                  <c:v>0.61780997017469108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -433,7 +444,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5A4B-45F2-B3F3-4F2C48DE7972}"/>
+              <c16:uniqueId val="{00000000-E7D7-9842-8AFC-E9244EE35DF6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -445,11 +456,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="550953264"/>
-        <c:axId val="601451152"/>
+        <c:axId val="1339097952"/>
+        <c:axId val="1339299776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="550953264"/>
+        <c:axId val="1339097952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -469,6 +480,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Maintenance Effort</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -506,12 +572,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="601451152"/>
+        <c:crossAx val="1339299776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="601451152"/>
+        <c:axId val="1339299776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -531,6 +597,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Defect Density</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -568,7 +689,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="550953264"/>
+        <c:crossAx val="1339097952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1184,23 +1305,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7374A29B-C778-4D6B-AF86-9B92188B6460}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D97E9CC0-65F5-2B4B-B131-02A487350EA3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1425,12 +1546,12 @@
   <dimension ref="A2:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -1453,7 +1574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -1477,7 +1598,7 @@
         <v>2.1136861176115347</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1501,7 +1622,7 @@
         <v>0.61780997017469108</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1525,7 +1646,7 @@
         <v>0.76504442473875478</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1549,7 +1670,7 @@
         <v>0.17785538740137111</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1573,7 +1694,7 @@
         <v>0.22556633261366932</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1597,63 +1718,73 @@
         <v>0.42949176807444522</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B13" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="C13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="D13" s="9"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="12">
+        <v>78.12</v>
+      </c>
       <c r="C14" s="11">
         <v>2.1136861176115347</v>
       </c>
-      <c r="D14" s="12">
-        <v>78.12</v>
-      </c>
+      <c r="D14" s="12"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="12">
+        <v>80.31</v>
+      </c>
       <c r="C15" s="11">
-        <v>0.61780997017469108</v>
-      </c>
-      <c r="D15" s="12">
-        <v>253.91</v>
-      </c>
+        <v>0.22556633261366932</v>
+      </c>
+      <c r="D15" s="12"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="12">
+        <v>89.52</v>
+      </c>
       <c r="C16" s="11">
-        <v>0.76504442473875478</v>
-      </c>
-      <c r="D16" s="12">
-        <v>158.17000000000002</v>
-      </c>
+        <v>0.42949176807444522</v>
+      </c>
+      <c r="D16" s="12"/>
     </row>
-    <row r="17" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="12">
+        <v>113.63</v>
+      </c>
       <c r="C17" s="11">
         <v>0.17785538740137111</v>
       </c>
-      <c r="D17" s="12">
-        <v>113.63</v>
-      </c>
+      <c r="D17" s="12"/>
     </row>
-    <row r="18" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="12">
+        <v>158.17000000000002</v>
+      </c>
       <c r="C18" s="11">
-        <v>0.22556633261366932</v>
-      </c>
-      <c r="D18" s="12">
-        <v>80.31</v>
-      </c>
+        <v>0.76504442473875478</v>
+      </c>
+      <c r="D18" s="12"/>
     </row>
-    <row r="19" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="12">
+        <v>253.91</v>
+      </c>
       <c r="C19" s="11">
-        <v>0.42949176807444522</v>
-      </c>
-      <c r="D19" s="12">
-        <v>89.52</v>
-      </c>
+        <v>0.61780997017469108</v>
+      </c>
+      <c r="D19" s="12"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:C19">
+    <sortCondition ref="B13"/>
+  </sortState>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>

--- a/correlation/correlation 5 and 6/correlation 5 and 6 - commons-net .xlsx
+++ b/correlation/correlation 5 and 6/correlation 5 and 6 - commons-net .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shalin_patel/Downloads/soen6611-measurement-metrics/correlation/correlation 5 and 6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6344751E-B306-3846-A0D4-F074CD067E4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A09879-8BF9-294E-B86F-41E999D505E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1546,7 +1546,7 @@
   <dimension ref="A2:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1734,7 +1734,10 @@
       <c r="C14" s="11">
         <v>2.1136861176115347</v>
       </c>
-      <c r="D14" s="12"/>
+      <c r="D14" s="12">
+        <f>CORREL(B14:B19,C14:C19)</f>
+        <v>-0.15734940235612854</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="12">
